--- a/biology/Botanique/Jardin_Expérimental_Jean_Massart/Jardin_Expérimental_Jean_Massart.xlsx
+++ b/biology/Botanique/Jardin_Expérimental_Jean_Massart/Jardin_Expérimental_Jean_Massart.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_Exp%C3%A9rimental_Jean_Massart</t>
+          <t>Jardin_Expérimental_Jean_Massart</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Jardin Expérimental Jean Massart (en néerlandais : Experimentele Tuin Jean Massart) est situé à Bruxelles, commune d’Auderghem, à proximité de l’abbaye du Rouge-Cloître dont il occupe cinq hectares des anciennes terres agricoles. Il est rattaché à la faculté des sciences de l'université libre de Bruxelles. Ses collections exposent près de 2000 espèces. 
@@ -491,9 +503,9 @@
 un verger illustrant la diversité au sein des espèces fruitières (pommiers en particulier),
 une collection de plantes médicinales parmi les plus riches du pays,
 une collection de plantes cultivées classées en fonction de leur utilisation par l'Homme et parfois accompagnées de leurs ancêtres sauvages dont elles dérivent ou de variétés anciennes,
-une collection de plantes exotiques envahissantes illustrant une thématique de recherche du laboratoire d'écologie végétale et biogéochimie de l'ULB[1]
-une collection de plantes métallicoles illustrant une thématique de recherche du laboratoire d'écologie végétale et biogéochimie de l'ULB[1]
-En 2015, une nouvelle espèce de mouche, Drapetis bruscellensis, a été découverte dans ce jardin. Il est très rare de découvrir une nouvelle espèce en Belgique (la précédente découverte d'une espèce de mouche datait de vingt ans)[2].
+une collection de plantes exotiques envahissantes illustrant une thématique de recherche du laboratoire d'écologie végétale et biogéochimie de l'ULB
+une collection de plantes métallicoles illustrant une thématique de recherche du laboratoire d'écologie végétale et biogéochimie de l'ULB
+En 2015, une nouvelle espèce de mouche, Drapetis bruscellensis, a été découverte dans ce jardin. Il est très rare de découvrir une nouvelle espèce en Belgique (la précédente découverte d'une espèce de mouche datait de vingt ans).
 </t>
         </is>
       </c>
@@ -504,7 +516,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_Exp%C3%A9rimental_Jean_Massart</t>
+          <t>Jardin_Expérimental_Jean_Massart</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -522,15 +534,51 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lieu à vocation multiple, le jardin Massart est à la fois :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Lieu à vocation multiple, le jardin Massart est à la fois :
 Un musée vivant, lieu de conservation d’espèces végétales
 Un jardin botanique expérimental
 Un lieu didactique et de documentation écologique : les collections de plein air fournissent le matériel didactique pour les futurs biologistes, agronomes et pharmaciens de l'ULB. Le jardin Massart accueille également de nombreuses écoles et organisations pour des animations et ateliers. Des visites guidées et différents évènements sont proposés au grand public. Différentes publications sont aussi proposées.
-Un parc paysager et une réserve naturelle ouverts au public : c’est aussi un endroit de promenade agréable aménagé avec un souci esthétique évident.
-Arbres remarquables
-Ci-dessous, quelques-uns des nombreux arbres remarquables du jardin botanique répertoriés par la Commission des monuments et des sites :
+Un parc paysager et une réserve naturelle ouverts au public : c’est aussi un endroit de promenade agréable aménagé avec un souci esthétique évident.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jardin_Expérimental_Jean_Massart</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jardin_Exp%C3%A9rimental_Jean_Massart</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Activités</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Arbres remarquables</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ci-dessous, quelques-uns des nombreux arbres remarquables du jardin botanique répertoriés par la Commission des monuments et des sites :
 </t>
         </is>
       </c>
